--- a/시그널뷰_기업개요.xlsx
+++ b/시그널뷰_기업개요.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김정훈\OneDrive\바탕 화면\시리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572310F3-AE99-4F31-8AA1-B127F8D48B4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11057373-F436-44F9-85FB-53959D098A5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4286" uniqueCount="4286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4288" uniqueCount="4288">
   <si>
     <t>종목명</t>
   </si>
@@ -14968,6 +14968,14 @@
     <t>- (지배구조) 2024년 5월 완전자본잠식 및 재무구조 악화로 코넥스 시장 상장 폐지됨.
 - (주력사업) AI 기반 장기재생플랫폼 전문기업으로 의료용 3D 바이오프린터 및 당뇨발 재생 키트가 주력임.
 - (모멘텀) FDA 및 CE MDR 인증 등 기술력 확보했으나 수익화 실패로 인한 재무 리스크가 핵심임.</t>
+  </si>
+  <si>
+    <t>레이저쎌</t>
+  </si>
+  <si>
+    <t>- (지배구조) 2015년 설립된 '면광원 에이리어 레이저' 원천 기술 보유 기업으로 반도체 후공정 장비가 핵심임.
+- (주력사업) 칩 휨 문제를 해결하는 레이저 본딩 장비(LSR, LCB)가 주력이며 TC 본더 대비 3~15배 빠른 생산성을 확보함.
+- (모멘텀) HBM 및 유리기판 등 첨단 패키징 분야로 확장 중이나 2024년 매출 35억 원 급감 및 상위 3개사 의존도 80% 상회가 리스크임.</t>
   </si>
 </sst>
 </file>
@@ -15366,10 +15374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2143"/>
+  <dimension ref="A1:B2144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2142" workbookViewId="0">
-      <selection activeCell="A2143" sqref="A2143:B2143"/>
+      <selection activeCell="A2144" sqref="A2144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -32518,6 +32526,14 @@
         <v>4285</v>
       </c>
     </row>
+    <row r="2144" spans="1:2" ht="18" thickBot="1">
+      <c r="A2144" s="2" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B2144" s="3" t="s">
+        <v>4287</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
